--- a/public/Documents/pointsTable.xlsx
+++ b/public/Documents/pointsTable.xlsx
@@ -378,7 +378,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -405,16 +405,16 @@
         <v>5</v>
       </c>
       <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
         <v>2</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -422,16 +422,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>2</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -456,16 +456,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
